--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.27220000000001</v>
+        <v>-12.12970000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.05220000000001</v>
+        <v>-13.1844</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.77369999999999</v>
+        <v>-13.9156</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.4724</v>
+        <v>-12.9121</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.18800000000001</v>
+        <v>-11.2974</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.12740000000001</v>
+        <v>-13.1753</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.06540000000001</v>
+        <v>-13.0276</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1294</v>
+        <v>-11.2837</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.02629999999999</v>
+        <v>-13.80219999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1556,7 +1556,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.2075</v>
+        <v>-11.3936</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.77</v>
+        <v>-12.83679999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
